--- a/devset/aa_qs.xlsx
+++ b/devset/aa_qs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreasalkemade/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreasalkemade/Desktop/ANLPDP_exam/devset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F8E8C6-9036-034A-BCD0-45EB0FC54656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEB8FC2-7370-E249-B215-6F1BE14A1580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6360" yWindow="1400" windowWidth="27840" windowHeight="16740" xr2:uid="{B41FC548-8287-C74A-B737-2ABF835AED87}"/>
   </bookViews>
@@ -841,12 +841,13 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="147.6640625" customWidth="1"/>
+    <col min="2" max="5" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
